--- a/Santanu/28 March/Dashboard - Copy.xlsx
+++ b/Santanu/28 March/Dashboard - Copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Upwork me as ORS\OWFCR\Santanu\25 March\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Upwork me as ORS\OWFCR\Santanu\28 March\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF80F8D-A3E9-4730-AA30-78B4835D21C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BCF647-A784-4AB7-B53C-2F8D9CE5F831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="732" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DashBoard" sheetId="5" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -516,6 +516,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -919,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
@@ -2392,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.44140625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2417,10 +2420,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="8">
-        <f>SUM('Turbine Locations'!D:D)</f>
-        <v>1840</v>
-      </c>
-      <c r="C2" s="8">
+        <f>PI()*SUM('Turbine Locations'!D:D)</f>
+        <v>5780.5304826052197</v>
+      </c>
+      <c r="C2" s="13">
         <v>1200</v>
       </c>
     </row>
@@ -2486,6 +2489,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B49172110EAC2948A7FB6C8E4C1A9952" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d720ce110049ffbed0153c4fab059a4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b9c8cf4-67aa-4efe-9680-e236f2377c06" xmlns:ns3="b20479c1-f988-4869-b501-e3668309325b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3fa437e8c5271e8cf6aa4087b63d5330" ns2:_="" ns3:_="">
     <xsd:import namespace="6b9c8cf4-67aa-4efe-9680-e236f2377c06"/>
@@ -2668,16 +2680,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA29D17F-5DC2-49D9-B436-C9E6DEB354D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{211058D5-68FA-46E8-B60A-9432EC965C11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2694,12 +2705,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA29D17F-5DC2-49D9-B436-C9E6DEB354D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>